--- a/team_results/lukko/xlsx_lukko_1_played_games_data.xlsx
+++ b/team_results/lukko/xlsx_lukko_1_played_games_data.xlsx
@@ -506,7 +506,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>12</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>14</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>30</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>34</v>

--- a/team_results/lukko/xlsx_lukko_1_played_games_data.xlsx
+++ b/team_results/lukko/xlsx_lukko_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>12</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>14</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>30</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>34</v>
@@ -1903,16 +1903,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2022-02-16</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>ilves</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>ilves</t>
         </is>
       </c>
     </row>
@@ -1937,16 +1937,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2022-02-25</t>
+          <t>2022-02-16</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>saipa</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1955,14 +1955,14 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>saipa</t>
         </is>
       </c>
     </row>
@@ -1971,32 +1971,100 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>388</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>kalpa</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>lukko</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>kalpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>393</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>2022-02-26</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>kookoo</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>lukko</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>lukko</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
         <v>3</v>
       </c>
-      <c r="G46" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>kookoo</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>402</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>lukko</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>pelicans</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>lukko</t>
         </is>
       </c>
     </row>
